--- a/teaching/traditional_assets/database/data/jamaica/jamaica_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.13</v>
+        <v>0.189</v>
       </c>
       <c r="E2">
-        <v>-0.00749</v>
+        <v>0.214</v>
       </c>
       <c r="G2">
-        <v>0.04813019390581717</v>
+        <v>-0.0248</v>
       </c>
       <c r="H2">
-        <v>0.04813019390581717</v>
+        <v>-0.0248</v>
       </c>
       <c r="I2">
-        <v>-0.0270443371599113</v>
+        <v>-0.12272</v>
       </c>
       <c r="J2">
-        <v>-0.02535627559208678</v>
+        <v>-0.1161749333333333</v>
       </c>
       <c r="K2">
-        <v>-0.4349999999999999</v>
+        <v>1.341</v>
       </c>
       <c r="L2">
-        <v>-0.01506232686980609</v>
+        <v>0.042912</v>
       </c>
       <c r="M2">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="N2">
-        <v>0.01699286906387498</v>
+        <v>0.02123205741626794</v>
       </c>
       <c r="O2">
-        <v>-2.574712643678161</v>
+        <v>1.058911260253542</v>
       </c>
       <c r="P2">
-        <v>1.12</v>
+        <v>1.42</v>
       </c>
       <c r="Q2">
-        <v>0.01699286906387498</v>
+        <v>0.02123205741626794</v>
       </c>
       <c r="R2">
-        <v>-2.574712643678161</v>
+        <v>1.058911260253542</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>9.898</v>
+        <v>14.622</v>
       </c>
       <c r="V2">
-        <v>0.1501744803519952</v>
+        <v>0.2186303827751196</v>
       </c>
       <c r="W2">
-        <v>0.001278772378516624</v>
+        <v>0.002736318407960199</v>
       </c>
       <c r="X2">
-        <v>0.07271341608286289</v>
+        <v>0.07531919405177684</v>
       </c>
       <c r="Y2">
-        <v>-0.07143464370434627</v>
+        <v>-0.07258287564381664</v>
       </c>
       <c r="Z2">
-        <v>1.764504372558226</v>
+        <v>2.006807089648086</v>
       </c>
       <c r="AA2">
-        <v>0.00014503534946432</v>
+        <v>0.1918965517241379</v>
       </c>
       <c r="AB2">
-        <v>0.07268340279607075</v>
+        <v>0.07524554293806116</v>
       </c>
       <c r="AC2">
-        <v>-0.07253836744660642</v>
+        <v>0.1162014495898479</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.9139999999999999</v>
       </c>
       <c r="AE2">
-        <v>0.3652022858911909</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.3652022858911909</v>
+        <v>0.9139999999999999</v>
       </c>
       <c r="AG2">
-        <v>-9.532797714108808</v>
+        <v>-13.708</v>
       </c>
       <c r="AH2">
-        <v>0.005510391116059045</v>
+        <v>0.01348201905773372</v>
       </c>
       <c r="AI2">
-        <v>0.01413584000039476</v>
+        <v>0.03306323252785415</v>
       </c>
       <c r="AJ2">
-        <v>-0.1690895845765383</v>
+        <v>-0.2578048597005943</v>
       </c>
       <c r="AK2">
-        <v>-0.5981475006154597</v>
+        <v>-1.052680079864844</v>
       </c>
       <c r="AL2">
-        <v>0.008</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.008</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>-0.2894236858771374</v>
       </c>
       <c r="AO2">
-        <v>-101.875</v>
+        <v>-44.59302325581395</v>
       </c>
       <c r="AP2">
-        <v>46.50145226394545</v>
+        <v>4.340721975934136</v>
       </c>
       <c r="AQ2">
-        <v>-101.875</v>
+        <v>-44.59302325581395</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>General Accident Insurance Company Jamaica Limited (JMSE:GENAC)</t>
+          <t>Key Insurance Company Limited (JMSE:KEY)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,104 +724,95 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.13</v>
-      </c>
-      <c r="E3">
-        <v>-0.00749</v>
-      </c>
       <c r="G3">
-        <v>0.1289855072463768</v>
+        <v>-3.428571428571428</v>
       </c>
       <c r="H3">
-        <v>0.1289855072463768</v>
+        <v>-3.428571428571428</v>
       </c>
       <c r="I3">
-        <v>0.1057971014492754</v>
+        <v>-4.32919254658385</v>
       </c>
       <c r="J3">
-        <v>0.08598607558965615</v>
+        <v>-4.32919254658385</v>
       </c>
       <c r="K3">
-        <v>2.49</v>
+        <v>-2.33</v>
       </c>
       <c r="L3">
-        <v>0.1202898550724638</v>
+        <v>-1.447204968944099</v>
       </c>
       <c r="M3">
-        <v>1.12</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02183235867446394</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.4497991967871486</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.12</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02183235867446394</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.4497991967871486</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>3.18</v>
+        <v>6.57</v>
       </c>
       <c r="V3">
-        <v>0.06198830409356726</v>
+        <v>0.4184713375796179</v>
       </c>
       <c r="W3">
-        <v>0.1638157894736842</v>
+        <v>-0.535632183908046</v>
       </c>
       <c r="X3">
-        <v>0.07258919768124435</v>
+        <v>0.07531919405177684</v>
       </c>
       <c r="Y3">
-        <v>0.09122659179243987</v>
+        <v>-0.6109513779598228</v>
       </c>
       <c r="Z3">
-        <v>2.310267857142857</v>
+        <v>-0.8256410256410256</v>
       </c>
       <c r="AA3">
-        <v>0.1986508665966387</v>
+        <v>3.574358974358974</v>
       </c>
       <c r="AB3">
-        <v>0.07258919768124435</v>
+        <v>0.07524554293806116</v>
       </c>
       <c r="AC3">
-        <v>0.1260616689153943</v>
+        <v>3.499113431420913</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AG3">
-        <v>-3.18</v>
+        <v>-6.499000000000001</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.004501933929364023</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.05178701677607585</v>
       </c>
       <c r="AJ3">
-        <v>-0.06608478802992519</v>
+        <v>-0.7063362677969788</v>
       </c>
       <c r="AK3">
-        <v>-0.228448275862069</v>
+        <v>1.250048086170417</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-0.01033478893740902</v>
       </c>
       <c r="AP3">
-        <v>-1.261904761904762</v>
+        <v>0.9459970887918486</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ironrock Insurance Company Limited (JMSE:ROC)</t>
+          <t>General Accident Insurance Company Jamaica Limited (JMSE:GENAC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,113 +843,122 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.189</v>
+      </c>
+      <c r="E4">
+        <v>0.214</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="I4">
-        <v>0.0001887412255772404</v>
+        <v>0.1177777777777778</v>
       </c>
       <c r="J4">
-        <v>0.0001887412255772404</v>
+        <v>0.09893333333333333</v>
       </c>
       <c r="K4">
-        <v>0.005</v>
+        <v>3.66</v>
       </c>
       <c r="L4">
-        <v>0.001908396946564885</v>
+        <v>0.1355555555555556</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>1.42</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.03127753303964757</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.3879781420765027</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>1.42</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.03127753303964757</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.3879781420765027</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0.418</v>
+        <v>7.77</v>
       </c>
       <c r="V4">
-        <v>0.07398230088495575</v>
+        <v>0.1711453744493392</v>
       </c>
       <c r="W4">
-        <v>0.001278772378516624</v>
+        <v>0.2140350877192982</v>
       </c>
       <c r="X4">
-        <v>0.07271341608286289</v>
+        <v>0.07600253935927474</v>
       </c>
       <c r="Y4">
-        <v>-0.07143464370434627</v>
+        <v>0.1380325483600235</v>
       </c>
       <c r="Z4">
-        <v>0.7684349247004638</v>
+        <v>1.939655172413793</v>
       </c>
       <c r="AA4">
-        <v>0.00014503534946432</v>
+        <v>0.1918965517241379</v>
       </c>
       <c r="AB4">
-        <v>0.07268340279607075</v>
+        <v>0.07569510213428998</v>
       </c>
       <c r="AC4">
-        <v>-0.07253836744660642</v>
+        <v>0.1162014495898479</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.834</v>
       </c>
       <c r="AE4">
-        <v>0.01752748994493815</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01752748994493815</v>
+        <v>0.834</v>
       </c>
       <c r="AG4">
-        <v>-0.4004725100550618</v>
+        <v>-6.936</v>
       </c>
       <c r="AH4">
-        <v>0.00309261666150444</v>
+        <v>0.01803867283817104</v>
       </c>
       <c r="AI4">
-        <v>0.004341144422815356</v>
+        <v>0.03668514119820533</v>
       </c>
       <c r="AJ4">
-        <v>-0.07628734411280554</v>
+        <v>-0.180324459234609</v>
       </c>
       <c r="AK4">
-        <v>-0.1106422070747014</v>
+        <v>-0.4635124298315959</v>
       </c>
       <c r="AL4">
-        <v>0.008</v>
+        <v>0.073</v>
       </c>
       <c r="AM4">
-        <v>0.008</v>
+        <v>0.073</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.2235924932975871</v>
       </c>
       <c r="AO4">
-        <v>-1.875</v>
+        <v>43.56164383561644</v>
       </c>
       <c r="AP4">
-        <v>-5.977201642612863</v>
+        <v>-1.859517426273458</v>
       </c>
       <c r="AQ4">
-        <v>-1.875</v>
+        <v>43.56164383561644</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Key Insurance Company Limited (JMSE:KEY)</t>
+          <t>Ironrock Insurance Company Limited (JMSE:ROC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0.2302158273381295</v>
+        <v>0.02462121212121212</v>
       </c>
       <c r="H5">
-        <v>-0.2302158273381295</v>
+        <v>0.02462121212121212</v>
       </c>
       <c r="I5">
-        <v>-0.5344487336671315</v>
+        <v>-0.01704545454545454</v>
       </c>
       <c r="J5">
-        <v>-0.5344487336671315</v>
+        <v>-0.01704545454545454</v>
       </c>
       <c r="K5">
-        <v>-2.93</v>
+        <v>0.011</v>
       </c>
       <c r="L5">
-        <v>-0.5269784172661871</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1002,7 +1002,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1011,73 +1011,79 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>6.3</v>
+        <v>0.282</v>
       </c>
       <c r="V5">
-        <v>0.7031249999999999</v>
+        <v>0.04878892733564013</v>
       </c>
       <c r="W5">
-        <v>-0.3761232349165597</v>
+        <v>0.002736318407960199</v>
       </c>
       <c r="X5">
-        <v>0.07414294308383035</v>
+        <v>0.07517287027675103</v>
       </c>
       <c r="Y5">
-        <v>-0.45026617800039</v>
+        <v>-0.07243655186879083</v>
       </c>
       <c r="Z5">
-        <v>1.390808478377977</v>
+        <v>0.7329261521377014</v>
       </c>
       <c r="AA5">
-        <v>-0.74331583004262</v>
+        <v>-0.01249305941143809</v>
       </c>
       <c r="AB5">
-        <v>0.07372703559163851</v>
+        <v>0.07514766349911435</v>
       </c>
       <c r="AC5">
-        <v>-0.8170428656342585</v>
+        <v>-0.08764072291055244</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AE5">
-        <v>0.3476747959462528</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.3476747959462528</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AG5">
-        <v>-5.952325204053747</v>
+        <v>-0.273</v>
       </c>
       <c r="AH5">
-        <v>0.03735356075157188</v>
+        <v>0.001554672655035412</v>
       </c>
       <c r="AI5">
-        <v>0.07400997537042593</v>
+        <v>0.002543091268719978</v>
       </c>
       <c r="AJ5">
-        <v>-1.979045477947382</v>
+        <v>-0.04957327038314871</v>
       </c>
       <c r="AK5">
-        <v>3.714804703186885</v>
+        <v>-0.08381946576604236</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AO5">
+        <v>-3.461538461538462</v>
       </c>
       <c r="AP5">
-        <v>2.131921634689738</v>
+        <v>15.16666666666667</v>
+      </c>
+      <c r="AQ5">
+        <v>-3.461538461538462</v>
       </c>
     </row>
   </sheetData>
